--- a/excel/Credentials.xlsx
+++ b/excel/Credentials.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16380" windowHeight="2970"/>
+    <workbookView windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="Get Start" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:H293"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Dubai Demo DB</t>
   </si>
@@ -56,9 +55,6 @@
   <si>
     <t>rbsgo</t>
   </si>
-  <si>
-    <t>amount</t>
-  </si>
 </sst>
 </file>
 
@@ -223,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +229,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,7 +578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,16 +602,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -618,89 +620,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +719,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,8 +814,8 @@
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575945</xdr:colOff>
       <xdr:row>110</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -841,8 +852,8 @@
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575945</xdr:colOff>
       <xdr:row>161</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
@@ -879,8 +890,8 @@
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575945</xdr:colOff>
       <xdr:row>215</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -917,8 +928,8 @@
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>575945</xdr:colOff>
       <xdr:row>270</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -955,8 +966,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17780</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>604520</xdr:colOff>
       <xdr:row>292</xdr:row>
       <xdr:rowOff>23495</xdr:rowOff>
     </xdr:to>
@@ -1246,15 +1257,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88181818181818" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.5454545454545" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.9090909090909" style="1" customWidth="1"/>
     <col min="2" max="2" width="47.5454545454545" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.88181818181818" style="1"/>
   </cols>
@@ -1303,14 +1314,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
